--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2CB33B-669E-47A2-95A0-4D1E55E9CD82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -14,7 +13,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="578">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1741,12 +1740,28 @@
   </si>
   <si>
     <t>Zimbabve</t>
+  </si>
+  <si>
+    <t>ddad</t>
+  </si>
+  <si>
+    <t>adca</t>
+  </si>
+  <si>
+    <t>GSG</t>
+  </si>
+  <si>
+    <t>Nufus</t>
+  </si>
+  <si>
+    <t>cezayir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1797,7 +1812,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1857,11 +1872,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1885,6 +1909,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2166,19 +2193,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D191"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2191,8 +2218,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2205,8 +2235,11 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2220,7 +2253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2230,11 +2263,8 @@
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2248,7 +2278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2262,7 +2292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2276,7 +2306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2290,7 +2320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2304,7 +2334,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2317,8 +2347,11 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2332,7 +2365,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2346,7 +2379,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2360,7 +2393,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2374,7 +2407,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2387,8 +2420,11 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -4859,21 +4895,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E46F7E-EBF0-44F2-AA2D-0668D88E0AD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="576">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1749,20 +1749,13 @@
   </si>
   <si>
     <t>GSG</t>
-  </si>
-  <si>
-    <t>Nufus</t>
-  </si>
-  <si>
-    <t>cezayir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1781,6 +1774,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF1A1A1A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="162"/>
@@ -1812,7 +1812,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1872,15 +1872,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1911,9 +1902,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2202,7 +2191,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="1" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2218,9 +2207,6 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>576</v>
-      </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2253,7 +2239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2261,6 +2247,9 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
     </row>
